--- a/biology/Botanique/Cephalocereus_senilis/Cephalocereus_senilis.xlsx
+++ b/biology/Botanique/Cephalocereus_senilis/Cephalocereus_senilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cephalocereus senilis (Tête de vieillard) est une espèce du genre Cephalocereus de la famille des Cactaceae. Elle est originaire de Guanajuato et Hidalgo dans l'est du Mexique. Elle est menacée dans son habitat naturel, mais le développement de sa culture a réduit les prélèvements dans la nature.
 C'est une grande espèce colonnaire, avec des touffes de troncs de 5 à 15 cm à l'âge adulte. Ces troncs ne se ramifient pas.
@@ -514,7 +526,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cephalocereus senilis est apprécié en raison de son apparence laineuse toute blanche. Il a besoin d'un sol bien drainé comme tous les cactus. Une exposition bien ensoleillée favorise la croissance des poils blancs.
 </t>
